--- a/storage/files/container_type.xlsx
+++ b/storage/files/container_type.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="7">
   <si>
     <t>編號</t>
   </si>
@@ -47,9 +47,6 @@
     <t>已換貼紙</t>
   </si>
   <si>
-    <t>已毀損</t>
-  </si>
-  <si>
     <t>測試杯子</t>
   </si>
 </sst>
@@ -57,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -66,6 +63,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -104,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -113,6 +118,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,17 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="A6:XFD6 A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="D479" sqref="A479:D479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="6.83203125" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="26" width="6.83203125" customWidth="1"/>
+    <col min="1" max="26" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -418,9 +436,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>3</v>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -433,8 +451,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>4</v>
+      <c r="A3" s="4">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -448,7 +466,7 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -462,7 +480,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -476,7 +494,7 @@
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -490,7 +508,7 @@
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -504,7 +522,7 @@
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -518,7 +536,7 @@
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -527,12 +545,12 @@
         <v>360</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>22</v>
+      <c r="A10" s="2">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -546,7 +564,7 @@
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
@@ -559,8 +577,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>30</v>
+      <c r="A12" s="2">
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -573,8 +591,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>34</v>
+      <c r="A13" s="2">
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
@@ -587,8 +605,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>35</v>
+      <c r="A14" s="2">
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -601,8 +619,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>36</v>
+      <c r="A15" s="2">
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -615,8 +633,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>38</v>
+      <c r="A16" s="2">
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -630,7 +648,7 @@
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
@@ -643,8 +661,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>45</v>
+      <c r="A18" s="2">
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
@@ -657,8 +675,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>47</v>
+      <c r="A19" s="2">
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
@@ -671,8 +689,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>49</v>
+      <c r="A20" s="2">
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
@@ -686,7 +704,7 @@
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
@@ -699,8 +717,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>51</v>
+      <c r="A22" s="2">
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
@@ -714,7 +732,7 @@
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
@@ -727,8 +745,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>58</v>
+      <c r="A24" s="2">
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
@@ -741,8 +759,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>60</v>
+      <c r="A25" s="2">
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
@@ -756,7 +774,7 @@
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>4</v>
@@ -769,8 +787,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
-        <v>62</v>
+      <c r="A27" s="2">
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
@@ -783,8 +801,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
-        <v>63</v>
+      <c r="A28" s="2">
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
@@ -798,7 +816,7 @@
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>4</v>
@@ -812,7 +830,7 @@
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
@@ -826,7 +844,7 @@
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>4</v>
@@ -839,8 +857,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
-        <v>70</v>
+      <c r="A32" s="2">
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>4</v>
@@ -854,13 +872,13 @@
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
@@ -868,55 +886,55 @@
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
-        <v>105</v>
+      <c r="A35" s="4">
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
-        <v>106</v>
+      <c r="A36" s="2">
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
-        <v>107</v>
+      <c r="A37" s="2">
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
@@ -924,27 +942,27 @@
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
-        <v>113</v>
+      <c r="A39" s="2">
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>5</v>
@@ -952,27 +970,27 @@
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
-        <v>116</v>
+      <c r="A41" s="2">
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
@@ -980,13 +998,13 @@
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>5</v>
@@ -994,13 +1012,13 @@
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>5</v>
@@ -1008,13 +1026,13 @@
     </row>
     <row r="44" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>5</v>
@@ -1022,69 +1040,69 @@
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
-        <v>123</v>
+      <c r="A46" s="2">
+        <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
-        <v>126</v>
+      <c r="A47" s="2">
+        <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
-        <v>127</v>
+      <c r="A48" s="2">
+        <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
-        <v>128</v>
+      <c r="A49" s="2">
+        <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>5</v>
@@ -1092,13 +1110,13 @@
     </row>
     <row r="50" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>5</v>
@@ -1106,13 +1124,13 @@
     </row>
     <row r="51" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
@@ -1120,13 +1138,13 @@
     </row>
     <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>5</v>
@@ -1134,13 +1152,13 @@
     </row>
     <row r="53" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>5</v>
@@ -1148,13 +1166,13 @@
     </row>
     <row r="54" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>5</v>
@@ -1162,27 +1180,27 @@
     </row>
     <row r="55" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1">
-        <v>136</v>
+      <c r="A56" s="2">
+        <v>65</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>5</v>
@@ -1190,27 +1208,27 @@
     </row>
     <row r="57" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="1">
-        <v>140</v>
+      <c r="A58" s="2">
+        <v>67</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>5</v>
@@ -1218,27 +1236,27 @@
     </row>
     <row r="59" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="1">
-        <v>142</v>
+      <c r="A60" s="2">
+        <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>5</v>
@@ -1246,13 +1264,13 @@
     </row>
     <row r="61" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>5</v>
@@ -1260,7 +1278,7 @@
     </row>
     <row r="62" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>4</v>
@@ -1274,7 +1292,7 @@
     </row>
     <row r="63" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>4</v>
@@ -1287,8 +1305,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="1">
-        <v>148</v>
+      <c r="A64" s="4">
+        <v>103</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>4</v>
@@ -1302,7 +1320,7 @@
     </row>
     <row r="65" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>4</v>
@@ -1316,7 +1334,7 @@
     </row>
     <row r="66" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>4</v>
@@ -1330,7 +1348,7 @@
     </row>
     <row r="67" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>4</v>
@@ -1343,8 +1361,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
-        <v>155</v>
+      <c r="A68" s="2">
+        <v>108</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>4</v>
@@ -1358,7 +1376,7 @@
     </row>
     <row r="69" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>4</v>
@@ -1371,8 +1389,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
-        <v>159</v>
+      <c r="A70" s="2">
+        <v>111</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>4</v>
@@ -1385,8 +1403,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="1">
-        <v>160</v>
+      <c r="A71" s="2">
+        <v>112</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>4</v>
@@ -1400,7 +1418,7 @@
     </row>
     <row r="72" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>4</v>
@@ -1414,7 +1432,7 @@
     </row>
     <row r="73" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>4</v>
@@ -1428,7 +1446,7 @@
     </row>
     <row r="74" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>4</v>
@@ -1442,7 +1460,7 @@
     </row>
     <row r="75" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>4</v>
@@ -1456,7 +1474,7 @@
     </row>
     <row r="76" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>4</v>
@@ -1470,7 +1488,7 @@
     </row>
     <row r="77" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>4</v>
@@ -1484,7 +1502,7 @@
     </row>
     <row r="78" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
@@ -1497,8 +1515,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="1">
-        <v>173</v>
+      <c r="A79" s="2">
+        <v>122</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
@@ -1512,7 +1530,7 @@
     </row>
     <row r="80" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
@@ -1525,8 +1543,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="1">
-        <v>175</v>
+      <c r="A81" s="2">
+        <v>124</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>4</v>
@@ -1539,8 +1557,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="1">
-        <v>177</v>
+      <c r="A82" s="2">
+        <v>125</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>4</v>
@@ -1554,7 +1572,7 @@
     </row>
     <row r="83" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>4</v>
@@ -1568,7 +1586,7 @@
     </row>
     <row r="84" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>4</v>
@@ -1582,7 +1600,7 @@
     </row>
     <row r="85" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>4</v>
@@ -1596,7 +1614,7 @@
     </row>
     <row r="86" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>4</v>
@@ -1610,7 +1628,7 @@
     </row>
     <row r="87" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>4</v>
@@ -1624,7 +1642,7 @@
     </row>
     <row r="88" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>4</v>
@@ -1638,7 +1656,7 @@
     </row>
     <row r="89" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>4</v>
@@ -1651,8 +1669,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="1">
-        <v>193</v>
+      <c r="A90" s="2">
+        <v>133</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>4</v>
@@ -1666,7 +1684,7 @@
     </row>
     <row r="91" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>4</v>
@@ -1680,7 +1698,7 @@
     </row>
     <row r="92" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>4</v>
@@ -1694,7 +1712,7 @@
     </row>
     <row r="93" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>4</v>
@@ -1708,7 +1726,7 @@
     </row>
     <row r="94" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>4</v>
@@ -1721,8 +1739,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="1">
-        <v>201</v>
+      <c r="A95" s="2">
+        <v>139</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>4</v>
@@ -1736,7 +1754,7 @@
     </row>
     <row r="96" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>4</v>
@@ -1750,7 +1768,7 @@
     </row>
     <row r="97" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>4</v>
@@ -1764,7 +1782,7 @@
     </row>
     <row r="98" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>4</v>
@@ -1777,8 +1795,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="1">
-        <v>208</v>
+      <c r="A99" s="2">
+        <v>143</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>4</v>
@@ -1792,7 +1810,7 @@
     </row>
     <row r="100" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>4</v>
@@ -1806,7 +1824,7 @@
     </row>
     <row r="101" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>4</v>
@@ -1820,7 +1838,7 @@
     </row>
     <row r="102" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>4</v>
@@ -1833,8 +1851,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="1">
-        <v>224</v>
+      <c r="A103" s="2">
+        <v>147</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>4</v>
@@ -1848,7 +1866,7 @@
     </row>
     <row r="104" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>4</v>
@@ -1861,8 +1879,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="1">
-        <v>228</v>
+      <c r="A105" s="2">
+        <v>149</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>4</v>
@@ -1876,7 +1894,7 @@
     </row>
     <row r="106" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>4</v>
@@ -1890,7 +1908,7 @@
     </row>
     <row r="107" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>4</v>
@@ -1904,7 +1922,7 @@
     </row>
     <row r="108" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>4</v>
@@ -1917,8 +1935,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="1">
-        <v>234</v>
+      <c r="A109" s="2">
+        <v>154</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>4</v>
@@ -1932,7 +1950,7 @@
     </row>
     <row r="110" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>4</v>
@@ -1946,7 +1964,7 @@
     </row>
     <row r="111" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>4</v>
@@ -1959,8 +1977,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="1">
-        <v>238</v>
+      <c r="A112" s="2">
+        <v>157</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>4</v>
@@ -1973,8 +1991,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="1">
-        <v>242</v>
+      <c r="A113" s="2">
+        <v>158</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>4</v>
@@ -1988,7 +2006,7 @@
     </row>
     <row r="114" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>4</v>
@@ -2002,7 +2020,7 @@
     </row>
     <row r="115" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>4</v>
@@ -2016,7 +2034,7 @@
     </row>
     <row r="116" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>245</v>
+        <v>161</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>4</v>
@@ -2030,7 +2048,7 @@
     </row>
     <row r="117" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>4</v>
@@ -2043,8 +2061,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="1">
-        <v>250</v>
+      <c r="A118" s="2">
+        <v>164</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>4</v>
@@ -2058,7 +2076,7 @@
     </row>
     <row r="119" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>4</v>
@@ -2072,7 +2090,7 @@
     </row>
     <row r="120" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>4</v>
@@ -2086,7 +2104,7 @@
     </row>
     <row r="121" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>4</v>
@@ -2099,8 +2117,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="1">
-        <v>255</v>
+      <c r="A122" s="2">
+        <v>168</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>4</v>
@@ -2114,7 +2132,7 @@
     </row>
     <row r="123" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>4</v>
@@ -2127,8 +2145,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="1">
-        <v>257</v>
+      <c r="A124" s="2">
+        <v>170</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>4</v>
@@ -2141,8 +2159,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="1">
-        <v>258</v>
+      <c r="A125" s="2">
+        <v>171</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>4</v>
@@ -2156,7 +2174,7 @@
     </row>
     <row r="126" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>4</v>
@@ -2170,7 +2188,7 @@
     </row>
     <row r="127" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>4</v>
@@ -2184,7 +2202,7 @@
     </row>
     <row r="128" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>4</v>
@@ -2198,7 +2216,7 @@
     </row>
     <row r="129" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>4</v>
@@ -2211,8 +2229,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="1">
-        <v>265</v>
+      <c r="A130" s="2">
+        <v>176</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>4</v>
@@ -2226,7 +2244,7 @@
     </row>
     <row r="131" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>4</v>
@@ -2239,8 +2257,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="1">
-        <v>267</v>
+      <c r="A132" s="2">
+        <v>178</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>4</v>
@@ -2254,7 +2272,7 @@
     </row>
     <row r="133" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>4</v>
@@ -2268,7 +2286,7 @@
     </row>
     <row r="134" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>4</v>
@@ -2282,7 +2300,7 @@
     </row>
     <row r="135" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>4</v>
@@ -2296,7 +2314,7 @@
     </row>
     <row r="136" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>4</v>
@@ -2310,7 +2328,7 @@
     </row>
     <row r="137" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>4</v>
@@ -2324,7 +2342,7 @@
     </row>
     <row r="138" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>282</v>
+        <v>186</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>4</v>
@@ -2337,8 +2355,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="1">
-        <v>287</v>
+      <c r="A139" s="2">
+        <v>187</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>4</v>
@@ -2351,8 +2369,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="1">
-        <v>288</v>
+      <c r="A140" s="2">
+        <v>188</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>4</v>
@@ -2365,13 +2383,13 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="1">
-        <v>289</v>
+      <c r="A141" s="2">
+        <v>189</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="2">
         <v>480</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -2380,7 +2398,7 @@
     </row>
     <row r="142" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>4</v>
@@ -2394,7 +2412,7 @@
     </row>
     <row r="143" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>4</v>
@@ -2407,8 +2425,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="1">
-        <v>300</v>
+      <c r="A144" s="2">
+        <v>194</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>4</v>
@@ -2422,7 +2440,7 @@
     </row>
     <row r="145" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>302</v>
+        <v>195</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>4</v>
@@ -2436,7 +2454,7 @@
     </row>
     <row r="146" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>304</v>
+        <v>196</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>4</v>
@@ -2449,8 +2467,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="1">
-        <v>319</v>
+      <c r="A147" s="2">
+        <v>197</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>4</v>
@@ -2463,8 +2481,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="1">
-        <v>320</v>
+      <c r="A148" s="2">
+        <v>198</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>4</v>
@@ -2478,7 +2496,7 @@
     </row>
     <row r="149" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>321</v>
+        <v>199</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>4</v>
@@ -2492,7 +2510,7 @@
     </row>
     <row r="150" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>326</v>
+        <v>200</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>4</v>
@@ -2506,7 +2524,7 @@
     </row>
     <row r="151" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>327</v>
+        <v>201</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>4</v>
@@ -2520,7 +2538,7 @@
     </row>
     <row r="152" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>328</v>
+        <v>202</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>4</v>
@@ -2533,8 +2551,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="1">
-        <v>329</v>
+      <c r="A153" s="2">
+        <v>203</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>4</v>
@@ -2548,7 +2566,7 @@
     </row>
     <row r="154" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>330</v>
+        <v>205</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>4</v>
@@ -2562,7 +2580,7 @@
     </row>
     <row r="155" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>331</v>
+        <v>206</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>4</v>
@@ -2576,7 +2594,7 @@
     </row>
     <row r="156" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>332</v>
+        <v>208</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>4</v>
@@ -2589,13 +2607,13 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="1">
-        <v>333</v>
+      <c r="A157" s="2">
+        <v>209</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="2">
         <v>480</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -2603,8 +2621,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="1">
-        <v>335</v>
+      <c r="A158" s="2">
+        <v>210</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>4</v>
@@ -2617,8 +2635,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="1">
-        <v>338</v>
+      <c r="A159" s="2">
+        <v>211</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>4</v>
@@ -2632,7 +2650,7 @@
     </row>
     <row r="160" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>339</v>
+        <v>213</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>4</v>
@@ -2645,13 +2663,13 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="1">
-        <v>340</v>
+      <c r="A161" s="2">
+        <v>214</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="2">
         <v>480</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -2659,8 +2677,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="1">
-        <v>341</v>
+      <c r="A162" s="2">
+        <v>215</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>4</v>
@@ -2673,8 +2691,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="1">
-        <v>342</v>
+      <c r="A163" s="2">
+        <v>216</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>4</v>
@@ -2687,8 +2705,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="1">
-        <v>343</v>
+      <c r="A164" s="2">
+        <v>217</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>4</v>
@@ -2701,8 +2719,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="1">
-        <v>345</v>
+      <c r="A165" s="2">
+        <v>218</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>4</v>
@@ -2715,8 +2733,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="1">
-        <v>346</v>
+      <c r="A166" s="2">
+        <v>219</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>4</v>
@@ -2730,7 +2748,7 @@
     </row>
     <row r="167" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>347</v>
+        <v>220</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>4</v>
@@ -2743,8 +2761,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="1">
-        <v>348</v>
+      <c r="A168" s="2">
+        <v>221</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>4</v>
@@ -2757,8 +2775,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="1">
-        <v>349</v>
+      <c r="A169" s="2">
+        <v>222</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>4</v>
@@ -2772,7 +2790,7 @@
     </row>
     <row r="170" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>4</v>
@@ -2786,7 +2804,7 @@
     </row>
     <row r="171" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>353</v>
+        <v>224</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>4</v>
@@ -2800,7 +2818,7 @@
     </row>
     <row r="172" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>354</v>
+        <v>225</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>4</v>
@@ -2813,8 +2831,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="1">
-        <v>500</v>
+      <c r="A173" s="2">
+        <v>226</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>4</v>
@@ -2827,14 +2845,14 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="1">
-        <v>501</v>
+      <c r="A174" s="2">
+        <v>227</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C174" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>5</v>
@@ -2842,13 +2860,13 @@
     </row>
     <row r="175" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>502</v>
+        <v>228</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C175" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>5</v>
@@ -2856,13 +2874,13 @@
     </row>
     <row r="176" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>503</v>
+        <v>229</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C176" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>5</v>
@@ -2870,27 +2888,27 @@
     </row>
     <row r="177" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>504</v>
+        <v>230</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C177" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="1">
-        <v>505</v>
+      <c r="A178" s="2">
+        <v>231</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C178" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>5</v>
@@ -2898,27 +2916,27 @@
     </row>
     <row r="179" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>506</v>
+        <v>232</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C179" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="1">
-        <v>507</v>
+      <c r="A180" s="2">
+        <v>233</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C180" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>5</v>
@@ -2926,13 +2944,13 @@
     </row>
     <row r="181" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>508</v>
+        <v>234</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C181" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>5</v>
@@ -2940,13 +2958,13 @@
     </row>
     <row r="182" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>509</v>
+        <v>235</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C182" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>5</v>
@@ -2954,13 +2972,13 @@
     </row>
     <row r="183" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>510</v>
+        <v>237</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C183" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>5</v>
@@ -2968,41 +2986,41 @@
     </row>
     <row r="184" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>511</v>
+        <v>238</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C184" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="1">
-        <v>512</v>
+      <c r="A185" s="2">
+        <v>239</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C185" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="1">
-        <v>513</v>
+      <c r="A186" s="2">
+        <v>241</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C186" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>5</v>
@@ -3010,13 +3028,13 @@
     </row>
     <row r="187" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>514</v>
+        <v>242</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C187" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>5</v>
@@ -3024,13 +3042,13 @@
     </row>
     <row r="188" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>515</v>
+        <v>243</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C188" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>5</v>
@@ -3038,27 +3056,27 @@
     </row>
     <row r="189" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>516</v>
+        <v>244</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C189" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="1">
-        <v>517</v>
+      <c r="A190" s="2">
+        <v>244</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C190" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>5</v>
@@ -3066,13 +3084,13 @@
     </row>
     <row r="191" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>518</v>
+        <v>245</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C191" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>5</v>
@@ -3080,55 +3098,55 @@
     </row>
     <row r="192" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>519</v>
+        <v>246</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C192" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="1">
-        <v>520</v>
+      <c r="A193" s="2">
+        <v>247</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C193" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="1">
-        <v>521</v>
+      <c r="A194" s="2">
+        <v>248</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C194" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="1">
-        <v>522</v>
+      <c r="A195" s="2">
+        <v>249</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C195" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>5</v>
@@ -3136,27 +3154,27 @@
     </row>
     <row r="196" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>523</v>
+        <v>250</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C196" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="1">
-        <v>524</v>
+      <c r="A197" s="2">
+        <v>251</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C197" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>5</v>
@@ -3164,13 +3182,13 @@
     </row>
     <row r="198" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>525</v>
+        <v>252</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C198" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>5</v>
@@ -3178,13 +3196,13 @@
     </row>
     <row r="199" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>526</v>
+        <v>253</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C199" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>5</v>
@@ -3192,13 +3210,13 @@
     </row>
     <row r="200" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>527</v>
+        <v>254</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C200" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>5</v>
@@ -3206,13 +3224,13 @@
     </row>
     <row r="201" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>528</v>
+        <v>255</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C201" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>5</v>
@@ -3220,13 +3238,13 @@
     </row>
     <row r="202" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>529</v>
+        <v>256</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C202" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>5</v>
@@ -3234,13 +3252,13 @@
     </row>
     <row r="203" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>530</v>
+        <v>257</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C203" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>5</v>
@@ -3248,13 +3266,13 @@
     </row>
     <row r="204" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>531</v>
+        <v>258</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C204" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>5</v>
@@ -3262,13 +3280,13 @@
     </row>
     <row r="205" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>532</v>
+        <v>259</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C205" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>5</v>
@@ -3276,13 +3294,13 @@
     </row>
     <row r="206" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>533</v>
+        <v>260</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C206" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>5</v>
@@ -3290,27 +3308,27 @@
     </row>
     <row r="207" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
-        <v>534</v>
+        <v>261</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C207" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="1">
-        <v>535</v>
+      <c r="A208" s="2">
+        <v>262</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C208" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>5</v>
@@ -3318,27 +3336,27 @@
     </row>
     <row r="209" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>536</v>
+        <v>263</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C209" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="1">
-        <v>537</v>
+      <c r="A210" s="2">
+        <v>264</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C210" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>5</v>
@@ -3346,13 +3364,13 @@
     </row>
     <row r="211" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
-        <v>538</v>
+        <v>265</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C211" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>5</v>
@@ -3360,13 +3378,13 @@
     </row>
     <row r="212" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>539</v>
+        <v>266</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C212" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>5</v>
@@ -3374,27 +3392,27 @@
     </row>
     <row r="213" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>540</v>
+        <v>267</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C213" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="1">
-        <v>541</v>
+      <c r="A214" s="2">
+        <v>268</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C214" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>5</v>
@@ -3402,13 +3420,13 @@
     </row>
     <row r="215" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>542</v>
+        <v>269</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C215" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>5</v>
@@ -3416,83 +3434,83 @@
     </row>
     <row r="216" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
-        <v>543</v>
+        <v>270</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C216" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="1">
-        <v>544</v>
+      <c r="A217" s="2">
+        <v>271</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C217" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="1">
-        <v>545</v>
+      <c r="A218" s="2">
+        <v>272</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C218" s="1">
-        <v>360</v>
+      <c r="C218" s="2">
+        <v>480</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="1">
-        <v>546</v>
+      <c r="A219" s="2">
+        <v>273</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C219" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="1">
-        <v>547</v>
+      <c r="A220" s="2">
+        <v>274</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C220" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="1">
-        <v>548</v>
+      <c r="A221" s="2">
+        <v>275</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C221" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>5</v>
@@ -3500,13 +3518,13 @@
     </row>
     <row r="222" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>549</v>
+        <v>276</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C222" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>5</v>
@@ -3514,13 +3532,13 @@
     </row>
     <row r="223" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>550</v>
+        <v>277</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C223" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>5</v>
@@ -3528,27 +3546,27 @@
     </row>
     <row r="224" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>551</v>
+        <v>279</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C224" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="1">
-        <v>552</v>
+      <c r="A225" s="2">
+        <v>280</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C225" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>5</v>
@@ -3556,55 +3574,55 @@
     </row>
     <row r="226" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>553</v>
+        <v>282</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C226" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="1">
-        <v>554</v>
+      <c r="A227" s="2">
+        <v>283</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C227" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="1">
-        <v>555</v>
+      <c r="A228" s="2">
+        <v>285</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C228" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="1">
-        <v>556</v>
+      <c r="A229" s="2">
+        <v>286</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C229" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>5</v>
@@ -3612,13 +3630,13 @@
     </row>
     <row r="230" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>557</v>
+        <v>287</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C230" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>5</v>
@@ -3626,13 +3644,13 @@
     </row>
     <row r="231" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>558</v>
+        <v>288</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C231" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>5</v>
@@ -3640,27 +3658,27 @@
     </row>
     <row r="232" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>559</v>
+        <v>289</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C232" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="1">
-        <v>560</v>
+      <c r="A233" s="2">
+        <v>290</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C233" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>5</v>
@@ -3668,13 +3686,13 @@
     </row>
     <row r="234" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>561</v>
+        <v>292</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C234" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>5</v>
@@ -3682,97 +3700,97 @@
     </row>
     <row r="235" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>562</v>
+        <v>293</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C235" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="1">
-        <v>563</v>
+    <row r="236" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
+        <v>294</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C236" s="1">
-        <v>360</v>
+      <c r="C236" s="2">
+        <v>480</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="1">
-        <v>564</v>
+      <c r="A237" s="4">
+        <v>295</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C237" s="1">
-        <v>360</v>
+      <c r="C237" s="2">
+        <v>480</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="1">
-        <v>565</v>
+      <c r="A238" s="2">
+        <v>296</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C238" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="1">
-        <v>566</v>
+      <c r="A239" s="2">
+        <v>297</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C239" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="1">
-        <v>567</v>
+      <c r="A240" s="2">
+        <v>298</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C240" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="1">
-        <v>568</v>
+      <c r="A241" s="2">
+        <v>299</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C241" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>5</v>
@@ -3780,27 +3798,27 @@
     </row>
     <row r="242" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>569</v>
+        <v>300</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C242" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="1">
-        <v>570</v>
+      <c r="A243" s="2">
+        <v>301</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C243" s="1">
-        <v>360</v>
+      <c r="C243" s="2">
+        <v>480</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>5</v>
@@ -3808,27 +3826,27 @@
     </row>
     <row r="244" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>571</v>
+        <v>302</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C244" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="1">
-        <v>572</v>
+      <c r="A245" s="2">
+        <v>303</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C245" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>5</v>
@@ -3836,7 +3854,7 @@
     </row>
     <row r="246" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>1361</v>
+        <v>304</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>4</v>
@@ -3849,8 +3867,8 @@
       </c>
     </row>
     <row r="247" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="1">
-        <v>1362</v>
+      <c r="A247" s="2">
+        <v>305</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>4</v>
@@ -3863,8 +3881,8 @@
       </c>
     </row>
     <row r="248" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="1">
-        <v>1363</v>
+      <c r="A248" s="2">
+        <v>306</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>4</v>
@@ -3877,8 +3895,8 @@
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="1">
-        <v>1364</v>
+      <c r="A249" s="2">
+        <v>307</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>4</v>
@@ -3891,8 +3909,8 @@
       </c>
     </row>
     <row r="250" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="1">
-        <v>1365</v>
+      <c r="A250" s="2">
+        <v>308</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>4</v>
@@ -3905,8 +3923,8 @@
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="1">
-        <v>1366</v>
+      <c r="A251" s="2">
+        <v>309</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>4</v>
@@ -3919,8 +3937,8 @@
       </c>
     </row>
     <row r="252" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="1">
-        <v>1367</v>
+      <c r="A252" s="2">
+        <v>311</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>4</v>
@@ -3933,8 +3951,8 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="1">
-        <v>1368</v>
+      <c r="A253" s="2">
+        <v>312</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>4</v>
@@ -3947,8 +3965,8 @@
       </c>
     </row>
     <row r="254" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="1">
-        <v>1369</v>
+      <c r="A254" s="2">
+        <v>313</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>4</v>
@@ -3961,8 +3979,8 @@
       </c>
     </row>
     <row r="255" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="1">
-        <v>1370</v>
+      <c r="A255" s="2">
+        <v>314</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>4</v>
@@ -3975,8 +3993,8 @@
       </c>
     </row>
     <row r="256" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="1">
-        <v>1371</v>
+      <c r="A256" s="2">
+        <v>315</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>4</v>
@@ -3989,8 +4007,8 @@
       </c>
     </row>
     <row r="257" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="1">
-        <v>1372</v>
+      <c r="A257" s="2">
+        <v>316</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>4</v>
@@ -4003,13 +4021,13 @@
       </c>
     </row>
     <row r="258" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="1">
-        <v>1373</v>
+      <c r="A258" s="4">
+        <v>317</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C258" s="1">
+      <c r="C258" s="2">
         <v>480</v>
       </c>
       <c r="D258" s="1" t="s">
@@ -4017,8 +4035,8 @@
       </c>
     </row>
     <row r="259" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="1">
-        <v>1374</v>
+      <c r="A259" s="2">
+        <v>318</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>4</v>
@@ -4032,7 +4050,7 @@
     </row>
     <row r="260" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
-        <v>1375</v>
+        <v>319</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>4</v>
@@ -4046,7 +4064,7 @@
     </row>
     <row r="261" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
-        <v>1376</v>
+        <v>320</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>4</v>
@@ -4060,7 +4078,7 @@
     </row>
     <row r="262" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
-        <v>1377</v>
+        <v>321</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>4</v>
@@ -4073,8 +4091,8 @@
       </c>
     </row>
     <row r="263" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="1">
-        <v>1378</v>
+      <c r="A263" s="2">
+        <v>322</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>4</v>
@@ -4087,8 +4105,8 @@
       </c>
     </row>
     <row r="264" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="1">
-        <v>1379</v>
+      <c r="A264" s="2">
+        <v>323</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>4</v>
@@ -4101,8 +4119,8 @@
       </c>
     </row>
     <row r="265" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="1">
-        <v>1380</v>
+      <c r="A265" s="2">
+        <v>324</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>4</v>
@@ -4115,8 +4133,8 @@
       </c>
     </row>
     <row r="266" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="1">
-        <v>1381</v>
+      <c r="A266" s="2">
+        <v>325</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>4</v>
@@ -4130,7 +4148,7 @@
     </row>
     <row r="267" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
-        <v>1382</v>
+        <v>326</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>4</v>
@@ -4144,7 +4162,7 @@
     </row>
     <row r="268" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
-        <v>1383</v>
+        <v>327</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>4</v>
@@ -4158,7 +4176,7 @@
     </row>
     <row r="269" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
-        <v>1384</v>
+        <v>328</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>4</v>
@@ -4172,7 +4190,7 @@
     </row>
     <row r="270" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
-        <v>1385</v>
+        <v>329</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>4</v>
@@ -4186,7 +4204,7 @@
     </row>
     <row r="271" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
-        <v>1386</v>
+        <v>330</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>4</v>
@@ -4200,7 +4218,7 @@
     </row>
     <row r="272" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
-        <v>1387</v>
+        <v>331</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>4</v>
@@ -4214,7 +4232,7 @@
     </row>
     <row r="273" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
-        <v>1388</v>
+        <v>332</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>4</v>
@@ -4228,7 +4246,7 @@
     </row>
     <row r="274" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
-        <v>1389</v>
+        <v>333</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>4</v>
@@ -4241,8 +4259,8 @@
       </c>
     </row>
     <row r="275" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="1">
-        <v>1390</v>
+      <c r="A275" s="2">
+        <v>334</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>4</v>
@@ -4256,7 +4274,7 @@
     </row>
     <row r="276" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
-        <v>1391</v>
+        <v>335</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>4</v>
@@ -4269,8 +4287,8 @@
       </c>
     </row>
     <row r="277" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="1">
-        <v>1392</v>
+      <c r="A277" s="2">
+        <v>336</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>4</v>
@@ -4283,8 +4301,8 @@
       </c>
     </row>
     <row r="278" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="1">
-        <v>1393</v>
+      <c r="A278" s="2">
+        <v>337</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>4</v>
@@ -4298,7 +4316,7 @@
     </row>
     <row r="279" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
-        <v>1394</v>
+        <v>338</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>4</v>
@@ -4312,7 +4330,7 @@
     </row>
     <row r="280" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
-        <v>1395</v>
+        <v>339</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>4</v>
@@ -4326,7 +4344,7 @@
     </row>
     <row r="281" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
-        <v>1396</v>
+        <v>340</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>4</v>
@@ -4339,854 +4357,4327 @@
       </c>
     </row>
     <row r="282" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="2">
-        <v>9990</v>
+      <c r="A282" s="1">
+        <v>341</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C282" s="2">
-        <v>360</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>7</v>
+      <c r="C282" s="1">
+        <v>480</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="2">
-        <v>9991</v>
+      <c r="A283" s="1">
+        <v>342</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C283" s="2">
-        <v>360</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>7</v>
+      <c r="C283" s="1">
+        <v>480</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="2">
-        <v>9992</v>
+      <c r="A284" s="1">
+        <v>343</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C284" s="2">
-        <v>360</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>7</v>
+      <c r="C284" s="1">
+        <v>480</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="2">
-        <v>9993</v>
+        <v>344</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C285" s="2">
-        <v>360</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>7</v>
+      <c r="C285" s="1">
+        <v>480</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="2">
-        <v>9994</v>
+      <c r="A286" s="1">
+        <v>345</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C286" s="2">
-        <v>360</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>7</v>
+      <c r="C286" s="1">
+        <v>480</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="2">
-        <v>9995</v>
+      <c r="A287" s="1">
+        <v>346</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C287" s="2">
-        <v>360</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>7</v>
+      <c r="C287" s="1">
+        <v>480</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="2">
-        <v>9996</v>
+      <c r="A288" s="1">
+        <v>347</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C288" s="2">
-        <v>360</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>7</v>
+      <c r="C288" s="1">
+        <v>480</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="2">
-        <v>9997</v>
+      <c r="A289" s="1">
+        <v>348</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C289" s="2">
-        <v>360</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>7</v>
+      <c r="C289" s="1">
+        <v>480</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="2">
-        <v>9998</v>
+      <c r="A290" s="1">
+        <v>349</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C290" s="2">
-        <v>360</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>7</v>
+      <c r="C290" s="1">
+        <v>480</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="2">
+        <v>350</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" s="1">
+        <v>480</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="1">
+        <v>351</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" s="1">
+        <v>480</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="4">
+        <v>352</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" s="2">
+        <v>480</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="1">
+        <v>353</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" s="1">
+        <v>480</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="1">
+        <v>354</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="1">
+        <v>480</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="5">
+        <v>499</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" s="1">
+        <v>480</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="6">
+        <v>500</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297" s="1">
+        <v>480</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="6">
+        <v>501</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" s="1">
+        <v>360</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="6">
+        <v>502</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" s="1">
+        <v>360</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="6">
+        <v>503</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" s="1">
+        <v>360</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="6">
+        <v>504</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301" s="1">
+        <v>360</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="6">
+        <v>505</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302" s="1">
+        <v>360</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="1">
+        <v>506</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303" s="1">
+        <v>360</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="1">
+        <v>507</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" s="1">
+        <v>360</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="1">
+        <v>508</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305" s="1">
+        <v>360</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="1">
+        <v>509</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306" s="1">
+        <v>360</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="1">
+        <v>510</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C307" s="1">
+        <v>360</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="1">
+        <v>511</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308" s="1">
+        <v>360</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="1">
+        <v>512</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309" s="1">
+        <v>360</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="1">
+        <v>513</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310" s="1">
+        <v>360</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="1">
+        <v>514</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C311" s="1">
+        <v>360</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A312" s="1">
+        <v>515</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312" s="1">
+        <v>360</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A313" s="1">
+        <v>516</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313" s="1">
+        <v>360</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="1">
+        <v>517</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314" s="1">
+        <v>360</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="1">
+        <v>518</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" s="1">
+        <v>360</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="1">
+        <v>519</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" s="1">
+        <v>360</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A317" s="1">
+        <v>520</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317" s="1">
+        <v>360</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="1">
+        <v>521</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318" s="1">
+        <v>360</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="1">
+        <v>522</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319" s="1">
+        <v>360</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="1">
+        <v>523</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" s="1">
+        <v>360</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="1">
+        <v>524</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" s="1">
+        <v>360</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A322" s="1">
+        <v>525</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322" s="1">
+        <v>360</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="1">
+        <v>526</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" s="1">
+        <v>360</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="1">
+        <v>527</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" s="1">
+        <v>360</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="1">
+        <v>528</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325" s="1">
+        <v>360</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="1">
+        <v>529</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" s="1">
+        <v>360</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="1">
+        <v>530</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" s="1">
+        <v>360</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="1">
+        <v>531</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" s="1">
+        <v>360</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A329" s="1">
+        <v>532</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" s="1">
+        <v>360</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="1">
+        <v>533</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C330" s="1">
+        <v>360</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="1">
+        <v>534</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331" s="1">
+        <v>360</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A332" s="1">
+        <v>535</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" s="1">
+        <v>360</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="1">
+        <v>536</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333" s="1">
+        <v>360</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="1">
+        <v>537</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C334" s="1">
+        <v>360</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="1">
+        <v>538</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335" s="1">
+        <v>360</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="1">
+        <v>539</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" s="1">
+        <v>360</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A337" s="1">
+        <v>540</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337" s="1">
+        <v>360</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A338" s="1">
+        <v>541</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" s="1">
+        <v>360</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="1">
+        <v>542</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339" s="1">
+        <v>360</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="1">
+        <v>543</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" s="1">
+        <v>360</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="1">
+        <v>544</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341" s="1">
+        <v>360</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A342" s="1">
+        <v>545</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" s="1">
+        <v>360</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="1">
+        <v>546</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" s="1">
+        <v>360</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A344" s="1">
+        <v>547</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" s="1">
+        <v>360</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="1">
+        <v>548</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" s="1">
+        <v>360</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="1">
+        <v>549</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" s="1">
+        <v>360</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="1">
+        <v>550</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" s="1">
+        <v>360</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A348" s="1">
+        <v>551</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="1">
+        <v>360</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="1">
+        <v>552</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="1">
+        <v>360</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="1">
+        <v>553</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" s="1">
+        <v>360</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="1">
+        <v>554</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" s="1">
+        <v>360</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="1">
+        <v>555</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" s="1">
+        <v>360</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="1">
+        <v>556</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353" s="1">
+        <v>360</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A354" s="1">
+        <v>557</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="1">
+        <v>360</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A355" s="1">
+        <v>558</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" s="1">
+        <v>360</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="1">
+        <v>559</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" s="1">
+        <v>360</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="1">
+        <v>560</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" s="1">
+        <v>360</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="1">
+        <v>561</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358" s="1">
+        <v>360</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A359" s="1">
+        <v>562</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359" s="1">
+        <v>360</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="1">
+        <v>563</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360" s="1">
+        <v>360</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="1">
+        <v>564</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C361" s="1">
+        <v>360</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="1">
+        <v>565</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362" s="1">
+        <v>360</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="1">
+        <v>566</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" s="1">
+        <v>360</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="1">
+        <v>567</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" s="1">
+        <v>360</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="1">
+        <v>568</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C365" s="1">
+        <v>360</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="1">
+        <v>569</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366" s="1">
+        <v>360</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="1">
+        <v>570</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C367" s="1">
+        <v>360</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="1">
+        <v>571</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C368" s="1">
+        <v>360</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="1">
+        <v>572</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369" s="1">
+        <v>360</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="4">
+        <v>573</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370" s="1">
+        <v>360</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="4">
+        <v>574</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371" s="1">
+        <v>360</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="4">
+        <v>575</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C372" s="1">
+        <v>360</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="4">
+        <v>576</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373" s="1">
+        <v>360</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="4">
+        <v>577</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374" s="1">
+        <v>360</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="4">
+        <v>578</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375" s="1">
+        <v>360</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="4">
+        <v>579</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376" s="1">
+        <v>360</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="4">
+        <v>580</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C377" s="1">
+        <v>360</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="4">
+        <v>581</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C378" s="1">
+        <v>360</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="4">
+        <v>582</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379" s="1">
+        <v>360</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="4">
+        <v>583</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380" s="1">
+        <v>360</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="4">
+        <v>584</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381" s="1">
+        <v>360</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="1">
+        <v>1361</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" s="1">
+        <v>480</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="1">
+        <v>1362</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C383" s="1">
+        <v>480</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="1">
+        <v>1363</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384" s="1">
+        <v>480</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="1">
+        <v>1364</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385" s="1">
+        <v>480</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="1">
+        <v>1365</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386" s="1">
+        <v>480</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="1">
+        <v>1366</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C387" s="1">
+        <v>480</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="1">
+        <v>1367</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388" s="1">
+        <v>480</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="1">
+        <v>1368</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389" s="1">
+        <v>480</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="1">
+        <v>1369</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C390" s="1">
+        <v>480</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="1">
+        <v>1370</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C391" s="1">
+        <v>480</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="1">
+        <v>1371</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C392" s="1">
+        <v>480</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="1">
+        <v>1372</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C393" s="1">
+        <v>480</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="1">
+        <v>1373</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394" s="1">
+        <v>480</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="1">
+        <v>1374</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395" s="1">
+        <v>480</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="1">
+        <v>1375</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C396" s="1">
+        <v>480</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="1">
+        <v>1376</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C397" s="1">
+        <v>480</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="1">
+        <v>1377</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C398" s="1">
+        <v>480</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="1">
+        <v>1378</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C399" s="1">
+        <v>480</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="1">
+        <v>1379</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C400" s="1">
+        <v>480</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="1">
+        <v>1380</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401" s="1">
+        <v>480</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="1">
+        <v>1381</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C402" s="1">
+        <v>480</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="1">
+        <v>1382</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C403" s="1">
+        <v>480</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="1">
+        <v>1383</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C404" s="1">
+        <v>480</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="1">
+        <v>1384</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C405" s="1">
+        <v>480</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="1">
+        <v>1385</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C406" s="1">
+        <v>480</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="1">
+        <v>1386</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C407" s="1">
+        <v>480</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="1">
+        <v>1387</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C408" s="1">
+        <v>480</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="1">
+        <v>1388</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C409" s="1">
+        <v>480</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="1">
+        <v>1389</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C410" s="1">
+        <v>480</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="1">
+        <v>1390</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C411" s="1">
+        <v>480</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="1">
+        <v>1391</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C412" s="1">
+        <v>480</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="1">
+        <v>1392</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C413" s="1">
+        <v>480</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="1">
+        <v>1393</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C414" s="1">
+        <v>480</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="1">
+        <v>1394</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C415" s="1">
+        <v>480</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="1">
+        <v>1395</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C416" s="1">
+        <v>480</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="1">
+        <v>1396</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C417" s="1">
+        <v>480</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="4">
+        <v>1397</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C418" s="2">
+        <v>480</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="4">
+        <v>1398</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C419" s="2">
+        <v>480</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="4">
+        <v>1399</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420" s="2">
+        <v>480</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="4">
+        <v>1400</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C421" s="2">
+        <v>480</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="4">
+        <v>1401</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C422" s="2">
+        <v>480</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="4">
+        <v>1402</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C423" s="2">
+        <v>480</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="4">
+        <v>1403</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C424" s="2">
+        <v>480</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="4">
+        <v>1404</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C425" s="2">
+        <v>480</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="4">
+        <v>1405</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C426" s="2">
+        <v>480</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="4">
+        <v>1406</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C427" s="2">
+        <v>480</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="4">
+        <v>1407</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C428" s="2">
+        <v>480</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="4">
+        <v>1408</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C429" s="2">
+        <v>480</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="4">
+        <v>1409</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C430" s="2">
+        <v>480</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="4">
+        <v>1410</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C431" s="2">
+        <v>480</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="4">
+        <v>1411</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C432" s="2">
+        <v>480</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="4">
+        <v>1412</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C433" s="2">
+        <v>480</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="4">
+        <v>1413</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C434" s="2">
+        <v>480</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="4">
+        <v>1414</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C435" s="2">
+        <v>480</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="4">
+        <v>1415</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C436" s="2">
+        <v>480</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="4">
+        <v>1416</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C437" s="2">
+        <v>480</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="4">
+        <v>1417</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C438" s="2">
+        <v>480</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="4">
+        <v>1418</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C439" s="2">
+        <v>480</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="4">
+        <v>1419</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C440" s="2">
+        <v>480</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="4">
+        <v>1420</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C441" s="2">
+        <v>480</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="4">
+        <v>1421</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C442" s="2">
+        <v>480</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="4">
+        <v>1422</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C443" s="2">
+        <v>480</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="4">
+        <v>1423</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C444" s="2">
+        <v>480</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="4">
+        <v>1424</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C445" s="2">
+        <v>480</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="4">
+        <v>1425</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C446" s="2">
+        <v>480</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="4">
+        <v>1426</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C447" s="2">
+        <v>480</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="4">
+        <v>1427</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C448" s="2">
+        <v>480</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="4">
+        <v>1428</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C449" s="2">
+        <v>480</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="4">
+        <v>1429</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C450" s="2">
+        <v>480</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="4">
+        <v>1430</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C451" s="2">
+        <v>480</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="4">
+        <v>1431</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C452" s="2">
+        <v>480</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A453" s="4">
+        <v>1432</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C453" s="2">
+        <v>480</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="4">
+        <v>1433</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C454" s="2">
+        <v>480</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A455" s="4">
+        <v>1434</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C455" s="2">
+        <v>480</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A456" s="4">
+        <v>1435</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C456" s="2">
+        <v>480</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A457" s="4">
+        <v>1436</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C457" s="2">
+        <v>480</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="4">
+        <v>1437</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C458" s="2">
+        <v>480</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A459" s="4">
+        <v>1438</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C459" s="2">
+        <v>480</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A460" s="4">
+        <v>1439</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C460" s="2">
+        <v>480</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="4">
+        <v>1440</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C461" s="2">
+        <v>480</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="4">
+        <v>1441</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C462" s="2">
+        <v>480</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="4">
+        <v>1442</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C463" s="2">
+        <v>480</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="4">
+        <v>1443</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C464" s="2">
+        <v>480</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="4">
+        <v>1444</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C465" s="2">
+        <v>480</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A466" s="2">
+        <v>1445</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C466" s="2">
+        <v>480</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="2">
+        <v>1446</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C467" s="2">
+        <v>480</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="4">
+        <v>1498</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C468" s="1">
+        <v>480</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A469" s="2">
+        <v>9990</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C469" s="2">
+        <v>360</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="2">
+        <v>9991</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C470" s="2">
+        <v>360</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A471" s="2">
+        <v>9992</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C471" s="2">
+        <v>360</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="2">
+        <v>9993</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C472" s="2">
+        <v>360</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="2">
+        <v>9994</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C473" s="2">
+        <v>360</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="2">
+        <v>9995</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C474" s="2">
+        <v>360</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="2">
+        <v>9996</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C475" s="2">
+        <v>360</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A476" s="2">
+        <v>9997</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C476" s="2">
+        <v>360</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A477" s="2">
+        <v>9998</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C477" s="2">
+        <v>360</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="2">
         <v>9999</v>
       </c>
-      <c r="B291" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C291" s="2">
-        <v>360</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B478" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C478" s="2">
+        <v>360</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="7"/>
+      <c r="B479" s="2"/>
+      <c r="C479" s="2"/>
+      <c r="D479" s="2"/>
+    </row>
+    <row r="480" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="7"/>
+    </row>
+    <row r="481" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="7"/>
+    </row>
+    <row r="482" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="7"/>
+    </row>
+    <row r="483" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="7"/>
+    </row>
+    <row r="484" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="7"/>
+    </row>
+    <row r="485" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="7"/>
+    </row>
+    <row r="486" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="7"/>
+    </row>
+    <row r="487" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="7"/>
+    </row>
+    <row r="488" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="7"/>
+    </row>
+    <row r="489" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="7"/>
+    </row>
+    <row r="490" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="7"/>
+    </row>
+    <row r="491" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="7"/>
+    </row>
+    <row r="492" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="7"/>
+    </row>
+    <row r="493" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="7"/>
+    </row>
+    <row r="494" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="7"/>
+    </row>
+    <row r="495" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="7"/>
+    </row>
+    <row r="496" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="7"/>
+    </row>
+    <row r="497" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="7"/>
+    </row>
+    <row r="498" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="7"/>
+    </row>
+    <row r="499" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="7"/>
+    </row>
+    <row r="500" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="7"/>
+    </row>
+    <row r="501" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="7"/>
+    </row>
+    <row r="502" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="7"/>
+    </row>
+    <row r="503" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="7"/>
+    </row>
+    <row r="504" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A504" s="7"/>
+    </row>
+    <row r="505" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A505" s="7"/>
+    </row>
+    <row r="506" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A506" s="7"/>
+    </row>
+    <row r="507" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="7"/>
+    </row>
+    <row r="508" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A508" s="7"/>
+    </row>
+    <row r="509" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="7"/>
+    </row>
+    <row r="510" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="7"/>
+    </row>
+    <row r="511" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="7"/>
+    </row>
+    <row r="512" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="7"/>
+    </row>
+    <row r="513" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="7"/>
+    </row>
+    <row r="514" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="7"/>
+    </row>
+    <row r="515" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="7"/>
+    </row>
+    <row r="516" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="7"/>
+    </row>
+    <row r="517" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="7"/>
+    </row>
+    <row r="518" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="7"/>
+    </row>
+    <row r="519" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="7"/>
+    </row>
+    <row r="520" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="7"/>
+    </row>
+    <row r="521" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="7"/>
+    </row>
+    <row r="522" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="7"/>
+    </row>
+    <row r="523" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="7"/>
+    </row>
+    <row r="524" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="7"/>
+    </row>
+    <row r="525" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="7"/>
+    </row>
+    <row r="526" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="7"/>
+    </row>
+    <row r="527" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="7"/>
+    </row>
+    <row r="528" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="7"/>
+    </row>
+    <row r="529" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="7"/>
+    </row>
+    <row r="530" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="7"/>
+    </row>
+    <row r="531" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="7"/>
+    </row>
+    <row r="532" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="7"/>
+    </row>
+    <row r="533" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="7"/>
+    </row>
+    <row r="534" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="7"/>
+    </row>
+    <row r="535" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="7"/>
+    </row>
+    <row r="536" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="7"/>
+    </row>
+    <row r="537" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="7"/>
+    </row>
+    <row r="538" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="7"/>
+    </row>
+    <row r="539" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="7"/>
+    </row>
+    <row r="540" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="7"/>
+    </row>
+    <row r="541" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="7"/>
+    </row>
+    <row r="542" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="7"/>
+    </row>
+    <row r="543" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="7"/>
+    </row>
+    <row r="544" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="7"/>
+    </row>
+    <row r="545" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="7"/>
+    </row>
+    <row r="546" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="7"/>
+    </row>
+    <row r="547" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="7"/>
+    </row>
+    <row r="548" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="7"/>
+    </row>
+    <row r="549" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="7"/>
+    </row>
+    <row r="550" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="7"/>
+    </row>
+    <row r="551" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="7"/>
+    </row>
+    <row r="552" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="7"/>
+    </row>
+    <row r="553" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="7"/>
+    </row>
+    <row r="554" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="7"/>
+    </row>
+    <row r="555" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="7"/>
+    </row>
+    <row r="556" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="7"/>
+    </row>
+    <row r="557" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="7"/>
+    </row>
+    <row r="558" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="7"/>
+    </row>
+    <row r="559" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="7"/>
+    </row>
+    <row r="560" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="7"/>
+    </row>
+    <row r="561" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="7"/>
+    </row>
+    <row r="562" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="7"/>
+    </row>
+    <row r="563" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="7"/>
+    </row>
+    <row r="564" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="7"/>
+    </row>
+    <row r="565" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="7"/>
+    </row>
+    <row r="566" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="7"/>
+    </row>
+    <row r="567" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="7"/>
+    </row>
+    <row r="568" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="7"/>
+    </row>
+    <row r="569" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="7"/>
+    </row>
+    <row r="570" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="7"/>
+    </row>
+    <row r="571" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="7"/>
+    </row>
+    <row r="572" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="7"/>
+    </row>
+    <row r="573" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="7"/>
+    </row>
+    <row r="574" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="7"/>
+    </row>
+    <row r="575" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="7"/>
+    </row>
+    <row r="576" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="7"/>
+    </row>
+    <row r="577" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="7"/>
+    </row>
+    <row r="578" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="7"/>
+    </row>
+    <row r="579" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="7"/>
+    </row>
+    <row r="580" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A580" s="7"/>
+    </row>
+    <row r="581" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="7"/>
+    </row>
+    <row r="582" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="7"/>
+    </row>
+    <row r="583" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="7"/>
+    </row>
+    <row r="584" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="7"/>
+    </row>
+    <row r="585" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="7"/>
+    </row>
+    <row r="586" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="7"/>
+    </row>
+    <row r="587" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="7"/>
+    </row>
+    <row r="588" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="7"/>
+    </row>
+    <row r="589" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="7"/>
+    </row>
+    <row r="590" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="7"/>
+    </row>
+    <row r="591" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="7"/>
+    </row>
+    <row r="592" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="7"/>
+    </row>
+    <row r="593" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="7"/>
+    </row>
+    <row r="594" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="7"/>
+    </row>
+    <row r="595" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="7"/>
+    </row>
+    <row r="596" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A596" s="7"/>
+    </row>
+    <row r="597" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A597" s="7"/>
+    </row>
+    <row r="598" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="7"/>
+    </row>
+    <row r="599" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="7"/>
+    </row>
+    <row r="600" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="7"/>
+    </row>
+    <row r="601" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="7"/>
+    </row>
+    <row r="602" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="7"/>
+    </row>
+    <row r="603" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="7"/>
+    </row>
+    <row r="604" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="7"/>
+    </row>
+    <row r="605" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A605" s="7"/>
+    </row>
+    <row r="606" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A606" s="7"/>
+    </row>
+    <row r="607" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A607" s="7"/>
+    </row>
+    <row r="608" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="7"/>
+    </row>
+    <row r="609" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A609" s="7"/>
+    </row>
+    <row r="610" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A610" s="7"/>
+    </row>
+    <row r="611" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A611" s="7"/>
+    </row>
+    <row r="612" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A612" s="7"/>
+    </row>
+    <row r="613" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A613" s="7"/>
+    </row>
+    <row r="614" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A614" s="7"/>
+    </row>
+    <row r="615" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A615" s="7"/>
+    </row>
+    <row r="616" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A616" s="7"/>
+    </row>
+    <row r="617" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A617" s="7"/>
+    </row>
+    <row r="618" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A618" s="7"/>
+    </row>
+    <row r="619" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A619" s="7"/>
+    </row>
+    <row r="620" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A620" s="7"/>
+    </row>
+    <row r="621" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A621" s="7"/>
+    </row>
+    <row r="622" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A622" s="7"/>
+    </row>
+    <row r="623" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A623" s="7"/>
+    </row>
+    <row r="624" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A624" s="7"/>
+    </row>
+    <row r="625" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A625" s="7"/>
+    </row>
+    <row r="626" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A626" s="7"/>
+    </row>
+    <row r="627" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A627" s="7"/>
+    </row>
+    <row r="628" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A628" s="7"/>
+    </row>
+    <row r="629" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A629" s="7"/>
+    </row>
+    <row r="630" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A630" s="7"/>
+    </row>
+    <row r="631" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A631" s="7"/>
+    </row>
+    <row r="632" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A632" s="7"/>
+    </row>
+    <row r="633" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A633" s="7"/>
+    </row>
+    <row r="634" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A634" s="7"/>
+    </row>
+    <row r="635" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A635" s="7"/>
+    </row>
+    <row r="636" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A636" s="7"/>
+    </row>
+    <row r="637" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A637" s="7"/>
+    </row>
+    <row r="638" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A638" s="7"/>
+    </row>
+    <row r="639" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A639" s="7"/>
+    </row>
+    <row r="640" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A640" s="7"/>
+    </row>
+    <row r="641" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A641" s="7"/>
+    </row>
+    <row r="642" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A642" s="7"/>
+    </row>
+    <row r="643" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A643" s="7"/>
+    </row>
+    <row r="644" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A644" s="7"/>
+    </row>
+    <row r="645" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A645" s="7"/>
+    </row>
+    <row r="646" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A646" s="7"/>
+    </row>
+    <row r="647" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A647" s="7"/>
+    </row>
+    <row r="648" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A648" s="7"/>
+    </row>
+    <row r="649" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A649" s="7"/>
+    </row>
+    <row r="650" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A650" s="7"/>
+    </row>
+    <row r="651" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A651" s="7"/>
+    </row>
+    <row r="652" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A652" s="7"/>
+    </row>
+    <row r="653" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A653" s="7"/>
+    </row>
+    <row r="654" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A654" s="7"/>
+    </row>
+    <row r="655" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A655" s="7"/>
+    </row>
+    <row r="656" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A656" s="7"/>
+    </row>
+    <row r="657" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A657" s="7"/>
+    </row>
+    <row r="658" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A658" s="7"/>
+    </row>
+    <row r="659" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A659" s="7"/>
+    </row>
+    <row r="660" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A660" s="7"/>
+    </row>
+    <row r="661" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A661" s="7"/>
+    </row>
+    <row r="662" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A662" s="7"/>
+    </row>
+    <row r="663" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A663" s="7"/>
+    </row>
+    <row r="664" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A664" s="7"/>
+    </row>
+    <row r="665" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A665" s="7"/>
+    </row>
+    <row r="666" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A666" s="7"/>
+    </row>
+    <row r="667" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A667" s="7"/>
+    </row>
+    <row r="668" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A668" s="7"/>
+    </row>
+    <row r="669" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A669" s="7"/>
+    </row>
+    <row r="670" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A670" s="7"/>
+    </row>
+    <row r="671" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A671" s="7"/>
+    </row>
+    <row r="672" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A672" s="7"/>
+    </row>
+    <row r="673" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A673" s="7"/>
+    </row>
+    <row r="674" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A674" s="7"/>
+    </row>
+    <row r="675" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A675" s="7"/>
+    </row>
+    <row r="676" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A676" s="7"/>
+    </row>
+    <row r="677" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A677" s="7"/>
+    </row>
+    <row r="678" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A678" s="7"/>
+    </row>
+    <row r="679" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A679" s="7"/>
+    </row>
+    <row r="680" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A680" s="7"/>
+    </row>
+    <row r="681" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A681" s="7"/>
+    </row>
+    <row r="682" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A682" s="7"/>
+    </row>
+    <row r="683" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A683" s="7"/>
+    </row>
+    <row r="684" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A684" s="7"/>
+    </row>
+    <row r="685" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A685" s="7"/>
+    </row>
+    <row r="686" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A686" s="7"/>
+    </row>
+    <row r="687" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A687" s="7"/>
+    </row>
+    <row r="688" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A688" s="7"/>
+    </row>
+    <row r="689" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A689" s="7"/>
+    </row>
+    <row r="690" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A690" s="7"/>
+    </row>
+    <row r="691" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A691" s="7"/>
+    </row>
+    <row r="692" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A692" s="7"/>
+    </row>
+    <row r="693" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A693" s="7"/>
+    </row>
+    <row r="694" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A694" s="7"/>
+    </row>
+    <row r="695" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A695" s="7"/>
+    </row>
+    <row r="696" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A696" s="7"/>
+    </row>
+    <row r="697" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A697" s="7"/>
+    </row>
+    <row r="698" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A698" s="7"/>
+    </row>
+    <row r="699" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A699" s="7"/>
+    </row>
+    <row r="700" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A700" s="7"/>
+    </row>
+    <row r="701" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A701" s="7"/>
+    </row>
+    <row r="702" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A702" s="7"/>
+    </row>
+    <row r="703" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A703" s="7"/>
+    </row>
+    <row r="704" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A704" s="7"/>
+    </row>
+    <row r="705" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A705" s="7"/>
+    </row>
+    <row r="706" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A706" s="7"/>
+    </row>
+    <row r="707" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A707" s="7"/>
+    </row>
+    <row r="708" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A708" s="7"/>
+    </row>
+    <row r="709" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A709" s="7"/>
+    </row>
+    <row r="710" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A710" s="7"/>
+    </row>
+    <row r="711" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A711" s="7"/>
+    </row>
+    <row r="712" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A712" s="7"/>
+    </row>
+    <row r="713" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A713" s="7"/>
+    </row>
+    <row r="714" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A714" s="7"/>
+    </row>
+    <row r="715" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A715" s="7"/>
+    </row>
+    <row r="716" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A716" s="7"/>
+    </row>
+    <row r="717" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A717" s="7"/>
+    </row>
+    <row r="718" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A718" s="7"/>
+    </row>
+    <row r="719" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A719" s="7"/>
+    </row>
+    <row r="720" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A720" s="7"/>
+    </row>
+    <row r="721" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A721" s="7"/>
+    </row>
+    <row r="722" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A722" s="7"/>
+    </row>
+    <row r="723" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A723" s="7"/>
+    </row>
+    <row r="724" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A724" s="7"/>
+    </row>
+    <row r="725" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A725" s="7"/>
+    </row>
+    <row r="726" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A726" s="7"/>
+    </row>
+    <row r="727" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A727" s="7"/>
+    </row>
+    <row r="728" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A728" s="7"/>
+    </row>
+    <row r="729" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A729" s="7"/>
+    </row>
+    <row r="730" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A730" s="7"/>
+    </row>
+    <row r="731" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A731" s="7"/>
+    </row>
+    <row r="732" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A732" s="7"/>
+    </row>
+    <row r="733" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A733" s="7"/>
+    </row>
+    <row r="734" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A734" s="7"/>
+    </row>
+    <row r="735" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A735" s="7"/>
+    </row>
+    <row r="736" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A736" s="7"/>
+    </row>
+    <row r="737" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A737" s="7"/>
+    </row>
+    <row r="738" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A738" s="7"/>
+    </row>
+    <row r="739" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A739" s="7"/>
+    </row>
+    <row r="740" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A740" s="7"/>
+    </row>
+    <row r="741" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A741" s="7"/>
+    </row>
+    <row r="742" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A742" s="7"/>
+    </row>
+    <row r="743" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A743" s="7"/>
+    </row>
+    <row r="744" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A744" s="7"/>
+    </row>
+    <row r="745" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A745" s="7"/>
+    </row>
+    <row r="746" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A746" s="7"/>
+    </row>
+    <row r="747" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A747" s="7"/>
+    </row>
+    <row r="748" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A748" s="7"/>
+    </row>
+    <row r="749" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A749" s="7"/>
+    </row>
+    <row r="750" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A750" s="7"/>
+    </row>
+    <row r="751" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A751" s="7"/>
+    </row>
+    <row r="752" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A752" s="7"/>
+    </row>
+    <row r="753" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A753" s="7"/>
+    </row>
+    <row r="754" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A754" s="7"/>
+    </row>
+    <row r="755" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A755" s="7"/>
+    </row>
+    <row r="756" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A756" s="7"/>
+    </row>
+    <row r="757" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A757" s="7"/>
+    </row>
+    <row r="758" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A758" s="7"/>
+    </row>
+    <row r="759" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A759" s="7"/>
+    </row>
+    <row r="760" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A760" s="7"/>
+    </row>
+    <row r="761" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A761" s="7"/>
+    </row>
+    <row r="762" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A762" s="7"/>
+    </row>
+    <row r="763" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A763" s="7"/>
+    </row>
+    <row r="764" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A764" s="7"/>
+    </row>
+    <row r="765" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A765" s="7"/>
+    </row>
+    <row r="766" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A766" s="7"/>
+    </row>
+    <row r="767" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A767" s="7"/>
+    </row>
+    <row r="768" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A768" s="7"/>
+    </row>
+    <row r="769" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A769" s="7"/>
+    </row>
+    <row r="770" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A770" s="7"/>
+    </row>
+    <row r="771" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A771" s="7"/>
+    </row>
+    <row r="772" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A772" s="7"/>
+    </row>
+    <row r="773" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A773" s="7"/>
+    </row>
+    <row r="774" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A774" s="7"/>
+    </row>
+    <row r="775" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A775" s="7"/>
+    </row>
+    <row r="776" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A776" s="7"/>
+    </row>
+    <row r="777" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A777" s="7"/>
+    </row>
+    <row r="778" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A778" s="7"/>
+    </row>
+    <row r="779" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A779" s="7"/>
+    </row>
+    <row r="780" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A780" s="7"/>
+    </row>
+    <row r="781" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A781" s="7"/>
+    </row>
+    <row r="782" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A782" s="7"/>
+    </row>
+    <row r="783" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A783" s="7"/>
+    </row>
+    <row r="784" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A784" s="7"/>
+    </row>
+    <row r="785" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A785" s="7"/>
+    </row>
+    <row r="786" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A786" s="7"/>
+    </row>
+    <row r="787" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A787" s="7"/>
+    </row>
+    <row r="788" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A788" s="7"/>
+    </row>
+    <row r="789" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A789" s="7"/>
+    </row>
+    <row r="790" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A790" s="7"/>
+    </row>
+    <row r="791" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A791" s="7"/>
+    </row>
+    <row r="792" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A792" s="7"/>
+    </row>
+    <row r="793" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A793" s="7"/>
+    </row>
+    <row r="794" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A794" s="7"/>
+    </row>
+    <row r="795" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A795" s="7"/>
+    </row>
+    <row r="796" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A796" s="7"/>
+    </row>
+    <row r="797" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A797" s="7"/>
+    </row>
+    <row r="798" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A798" s="7"/>
+    </row>
+    <row r="799" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A799" s="7"/>
+    </row>
+    <row r="800" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A800" s="7"/>
+    </row>
+    <row r="801" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A801" s="7"/>
+    </row>
+    <row r="802" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A802" s="7"/>
+    </row>
+    <row r="803" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A803" s="7"/>
+    </row>
+    <row r="804" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A804" s="7"/>
+    </row>
+    <row r="805" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A805" s="7"/>
+    </row>
+    <row r="806" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A806" s="7"/>
+    </row>
+    <row r="807" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A807" s="7"/>
+    </row>
+    <row r="808" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A808" s="7"/>
+    </row>
+    <row r="809" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A809" s="7"/>
+    </row>
+    <row r="810" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A810" s="7"/>
+    </row>
+    <row r="811" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A811" s="7"/>
+    </row>
+    <row r="812" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A812" s="7"/>
+    </row>
+    <row r="813" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A813" s="7"/>
+    </row>
+    <row r="814" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A814" s="7"/>
+    </row>
+    <row r="815" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A815" s="7"/>
+    </row>
+    <row r="816" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A816" s="7"/>
+    </row>
+    <row r="817" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A817" s="7"/>
+    </row>
+    <row r="818" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A818" s="7"/>
+    </row>
+    <row r="819" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A819" s="7"/>
+    </row>
+    <row r="820" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A820" s="7"/>
+    </row>
+    <row r="821" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A821" s="7"/>
+    </row>
+    <row r="822" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A822" s="7"/>
+    </row>
+    <row r="823" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A823" s="7"/>
+    </row>
+    <row r="824" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A824" s="7"/>
+    </row>
+    <row r="825" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A825" s="7"/>
+    </row>
+    <row r="826" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A826" s="7"/>
+    </row>
+    <row r="827" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A827" s="7"/>
+    </row>
+    <row r="828" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A828" s="7"/>
+    </row>
+    <row r="829" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A829" s="7"/>
+    </row>
+    <row r="830" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A830" s="7"/>
+    </row>
+    <row r="831" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A831" s="7"/>
+    </row>
+    <row r="832" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A832" s="7"/>
+    </row>
+    <row r="833" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A833" s="7"/>
+    </row>
+    <row r="834" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A834" s="7"/>
+    </row>
+    <row r="835" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A835" s="7"/>
+    </row>
+    <row r="836" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A836" s="7"/>
+    </row>
+    <row r="837" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A837" s="7"/>
+    </row>
+    <row r="838" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A838" s="7"/>
+    </row>
+    <row r="839" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A839" s="7"/>
+    </row>
+    <row r="840" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A840" s="7"/>
+    </row>
+    <row r="841" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A841" s="7"/>
+    </row>
+    <row r="842" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A842" s="7"/>
+    </row>
+    <row r="843" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A843" s="7"/>
+    </row>
+    <row r="844" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A844" s="7"/>
+    </row>
+    <row r="845" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A845" s="7"/>
+    </row>
+    <row r="846" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A846" s="7"/>
+    </row>
+    <row r="847" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A847" s="7"/>
+    </row>
+    <row r="848" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A848" s="7"/>
+    </row>
+    <row r="849" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A849" s="7"/>
+    </row>
+    <row r="850" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A850" s="7"/>
+    </row>
+    <row r="851" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A851" s="7"/>
+    </row>
+    <row r="852" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A852" s="7"/>
+    </row>
+    <row r="853" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A853" s="7"/>
+    </row>
+    <row r="854" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A854" s="7"/>
+    </row>
+    <row r="855" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A855" s="7"/>
+    </row>
+    <row r="856" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A856" s="7"/>
+    </row>
+    <row r="857" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A857" s="7"/>
+    </row>
+    <row r="858" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A858" s="7"/>
+    </row>
+    <row r="859" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A859" s="7"/>
+    </row>
+    <row r="860" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A860" s="7"/>
+    </row>
+    <row r="861" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A861" s="7"/>
+    </row>
+    <row r="862" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A862" s="7"/>
+    </row>
+    <row r="863" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A863" s="7"/>
+    </row>
+    <row r="864" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A864" s="7"/>
+    </row>
+    <row r="865" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A865" s="7"/>
+    </row>
+    <row r="866" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A866" s="7"/>
+    </row>
+    <row r="867" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A867" s="7"/>
+    </row>
+    <row r="868" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A868" s="7"/>
+    </row>
+    <row r="869" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A869" s="7"/>
+    </row>
+    <row r="870" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A870" s="7"/>
+    </row>
+    <row r="871" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A871" s="7"/>
+    </row>
+    <row r="872" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A872" s="7"/>
+    </row>
+    <row r="873" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A873" s="7"/>
+    </row>
+    <row r="874" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A874" s="7"/>
+    </row>
+    <row r="875" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A875" s="7"/>
+    </row>
+    <row r="876" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A876" s="7"/>
+    </row>
+    <row r="877" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A877" s="7"/>
+    </row>
+    <row r="878" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A878" s="7"/>
+    </row>
+    <row r="879" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A879" s="7"/>
+    </row>
+    <row r="880" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A880" s="7"/>
+    </row>
+    <row r="881" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A881" s="7"/>
+    </row>
+    <row r="882" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A882" s="7"/>
+    </row>
+    <row r="883" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A883" s="7"/>
+    </row>
+    <row r="884" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A884" s="7"/>
+    </row>
+    <row r="885" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A885" s="7"/>
+    </row>
+    <row r="886" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A886" s="7"/>
+    </row>
+    <row r="887" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A887" s="7"/>
+    </row>
+    <row r="888" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A888" s="7"/>
+    </row>
+    <row r="889" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A889" s="7"/>
+    </row>
+    <row r="890" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A890" s="7"/>
+    </row>
+    <row r="891" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A891" s="7"/>
+    </row>
+    <row r="892" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A892" s="7"/>
+    </row>
+    <row r="893" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A893" s="7"/>
+    </row>
+    <row r="894" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A894" s="7"/>
+    </row>
+    <row r="895" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A895" s="7"/>
+    </row>
+    <row r="896" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A896" s="7"/>
+    </row>
+    <row r="897" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A897" s="7"/>
+    </row>
+    <row r="898" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A898" s="7"/>
+    </row>
+    <row r="899" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A899" s="7"/>
+    </row>
+    <row r="900" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A900" s="7"/>
+    </row>
+    <row r="901" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A901" s="7"/>
+    </row>
+    <row r="902" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A902" s="7"/>
+    </row>
+    <row r="903" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A903" s="7"/>
+    </row>
+    <row r="904" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A904" s="7"/>
+    </row>
+    <row r="905" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A905" s="7"/>
+    </row>
+    <row r="906" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A906" s="7"/>
+    </row>
+    <row r="907" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A907" s="7"/>
+    </row>
+    <row r="908" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A908" s="7"/>
+    </row>
+    <row r="909" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A909" s="7"/>
+    </row>
+    <row r="910" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A910" s="7"/>
+    </row>
+    <row r="911" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A911" s="7"/>
+    </row>
+    <row r="912" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A912" s="7"/>
+    </row>
+    <row r="913" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A913" s="7"/>
+    </row>
+    <row r="914" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A914" s="7"/>
+    </row>
+    <row r="915" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A915" s="7"/>
+    </row>
+    <row r="916" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A916" s="7"/>
+    </row>
+    <row r="917" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A917" s="7"/>
+    </row>
+    <row r="918" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A918" s="7"/>
+    </row>
+    <row r="919" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A919" s="7"/>
+    </row>
+    <row r="920" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A920" s="7"/>
+    </row>
+    <row r="921" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A921" s="7"/>
+    </row>
+    <row r="922" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A922" s="7"/>
+    </row>
+    <row r="923" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A923" s="7"/>
+    </row>
+    <row r="924" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A924" s="7"/>
+    </row>
+    <row r="925" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A925" s="7"/>
+    </row>
+    <row r="926" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A926" s="7"/>
+    </row>
+    <row r="927" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A927" s="7"/>
+    </row>
+    <row r="928" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A928" s="7"/>
+    </row>
+    <row r="929" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A929" s="7"/>
+    </row>
+    <row r="930" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A930" s="7"/>
+    </row>
+    <row r="931" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A931" s="7"/>
+    </row>
+    <row r="932" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A932" s="7"/>
+    </row>
+    <row r="933" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A933" s="7"/>
+    </row>
+    <row r="934" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A934" s="7"/>
+    </row>
+    <row r="935" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A935" s="7"/>
+    </row>
+    <row r="936" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A936" s="7"/>
+    </row>
+    <row r="937" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A937" s="7"/>
+    </row>
+    <row r="938" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A938" s="7"/>
+    </row>
+    <row r="939" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A939" s="7"/>
+    </row>
+    <row r="940" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A940" s="7"/>
+    </row>
+    <row r="941" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A941" s="7"/>
+    </row>
+    <row r="942" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A942" s="7"/>
+    </row>
+    <row r="943" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A943" s="7"/>
+    </row>
+    <row r="944" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A944" s="7"/>
+    </row>
+    <row r="945" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A945" s="7"/>
+    </row>
+    <row r="946" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A946" s="7"/>
+    </row>
+    <row r="947" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A947" s="7"/>
+    </row>
+    <row r="948" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A948" s="7"/>
+    </row>
+    <row r="949" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A949" s="7"/>
+    </row>
+    <row r="950" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A950" s="7"/>
+    </row>
+    <row r="951" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A951" s="7"/>
+    </row>
+    <row r="952" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A952" s="7"/>
+    </row>
+    <row r="953" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A953" s="7"/>
+    </row>
+    <row r="954" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A954" s="7"/>
+    </row>
+    <row r="955" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A955" s="7"/>
+    </row>
+    <row r="956" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A956" s="7"/>
+    </row>
+    <row r="957" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A957" s="7"/>
+    </row>
+    <row r="958" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A958" s="7"/>
+    </row>
+    <row r="959" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A959" s="7"/>
+    </row>
+    <row r="960" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A960" s="7"/>
+    </row>
+    <row r="961" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A961" s="7"/>
+    </row>
+    <row r="962" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A962" s="7"/>
+    </row>
+    <row r="963" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A963" s="7"/>
+    </row>
+    <row r="964" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A964" s="7"/>
+    </row>
+    <row r="965" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A965" s="7"/>
+    </row>
+    <row r="966" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A966" s="7"/>
+    </row>
+    <row r="967" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A967" s="7"/>
+    </row>
+    <row r="968" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A968" s="7"/>
+    </row>
+    <row r="969" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A969" s="7"/>
+    </row>
+    <row r="970" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A970" s="7"/>
+    </row>
+    <row r="971" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A971" s="7"/>
+    </row>
+    <row r="972" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A972" s="7"/>
+    </row>
+    <row r="973" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A973" s="7"/>
+    </row>
+    <row r="974" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A974" s="7"/>
+    </row>
+    <row r="975" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A975" s="7"/>
+    </row>
+    <row r="976" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A976" s="7"/>
+    </row>
+    <row r="977" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A977" s="7"/>
+    </row>
+    <row r="978" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A978" s="7"/>
+    </row>
+    <row r="979" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A979" s="7"/>
+    </row>
+    <row r="980" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A980" s="7"/>
+    </row>
+    <row r="981" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A981" s="7"/>
+    </row>
+    <row r="982" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A982" s="7"/>
+    </row>
+    <row r="983" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A983" s="7"/>
+    </row>
+    <row r="984" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A984" s="7"/>
+    </row>
+    <row r="985" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A985" s="7"/>
+    </row>
+    <row r="986" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A986" s="7"/>
+    </row>
+    <row r="987" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A987" s="7"/>
+    </row>
+    <row r="988" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A988" s="7"/>
+    </row>
+    <row r="989" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A989" s="7"/>
+    </row>
+    <row r="990" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A990" s="7"/>
+    </row>
+    <row r="991" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A991" s="7"/>
+    </row>
+    <row r="992" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A992" s="7"/>
+    </row>
+    <row r="993" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A993" s="7"/>
+    </row>
+    <row r="994" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A994" s="7"/>
+    </row>
+    <row r="995" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A995" s="7"/>
+    </row>
+    <row r="996" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A996" s="7"/>
+    </row>
+    <row r="997" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A997" s="7"/>
+    </row>
+    <row r="998" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1001" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
